--- a/Team-Data/2013-14/3-3-2013-14.xlsx
+++ b/Team-Data/2013-14/3-3-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -756,13 +823,13 @@
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
         <v>7</v>
@@ -783,7 +850,7 @@
         <v>22</v>
       </c>
       <c r="AQ2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
@@ -801,7 +868,7 @@
         <v>21</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
         <v>23</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -926,19 +993,19 @@
         <v>-3.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF3" t="n">
         <v>27</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>26</v>
       </c>
       <c r="AG3" t="n">
         <v>27</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
@@ -986,10 +1053,10 @@
         <v>22</v>
       </c>
       <c r="AX3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" t="n">
         <v>29</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5</v>
+        <v>0.491</v>
       </c>
       <c r="H4" t="n">
         <v>48.4</v>
@@ -1048,10 +1115,10 @@
         <v>35.3</v>
       </c>
       <c r="J4" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L4" t="n">
         <v>8</v>
@@ -1060,13 +1127,13 @@
         <v>22.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.359</v>
+        <v>0.361</v>
       </c>
       <c r="O4" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P4" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q4" t="n">
         <v>0.762</v>
@@ -1075,25 +1142,25 @@
         <v>9.1</v>
       </c>
       <c r="S4" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T4" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="U4" t="n">
         <v>20.7</v>
       </c>
       <c r="V4" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W4" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="X4" t="n">
         <v>4</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z4" t="n">
         <v>21.8</v>
@@ -1105,16 +1172,16 @@
         <v>97.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.8</v>
+        <v>-2.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
         <v>16</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
         <v>16</v>
@@ -1123,7 +1190,7 @@
         <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="n">
         <v>29</v>
@@ -1138,7 +1205,7 @@
         <v>12</v>
       </c>
       <c r="AN4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
         <v>8</v>
@@ -1165,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="AW4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX4" t="n">
         <v>27</v>
@@ -1174,16 +1241,16 @@
         <v>8</v>
       </c>
       <c r="AZ4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA4" t="n">
         <v>11</v>
       </c>
       <c r="BB4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -1212,58 +1279,58 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" t="n">
         <v>27</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" t="n">
-        <v>0.45</v>
+        <v>0.458</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J5" t="n">
         <v>81.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O5" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P5" t="n">
         <v>25.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.728</v>
+        <v>0.729</v>
       </c>
       <c r="R5" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="S5" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T5" t="n">
         <v>42</v>
       </c>
       <c r="U5" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V5" t="n">
         <v>12.6</v>
@@ -1272,37 +1339,37 @@
         <v>6.2</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
         <v>18.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.2</v>
+        <v>95</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.2</v>
+        <v>-2</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI5" t="n">
         <v>27</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1329,7 +1396,7 @@
         <v>7</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR5" t="n">
         <v>27</v>
@@ -1341,7 +1408,7 @@
         <v>22</v>
       </c>
       <c r="AU5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1353,10 +1420,10 @@
         <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA5" t="n">
         <v>9</v>
@@ -1365,7 +1432,7 @@
         <v>27</v>
       </c>
       <c r="BC5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -1394,31 +1461,31 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" t="n">
         <v>33</v>
       </c>
       <c r="F6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" t="n">
-        <v>0.55</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
       </c>
       <c r="I6" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="J6" t="n">
-        <v>80.3</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K6" t="n">
         <v>0.429</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M6" t="n">
         <v>17.6</v>
@@ -1427,13 +1494,13 @@
         <v>0.344</v>
       </c>
       <c r="O6" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P6" t="n">
         <v>23.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.77</v>
+        <v>0.772</v>
       </c>
       <c r="R6" t="n">
         <v>12.1</v>
@@ -1442,19 +1509,19 @@
         <v>33.1</v>
       </c>
       <c r="T6" t="n">
-        <v>45.1</v>
+        <v>45.2</v>
       </c>
       <c r="U6" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="V6" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y6" t="n">
         <v>6.2</v>
@@ -1463,28 +1530,28 @@
         <v>19.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.09999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF6" t="n">
         <v>12</v>
       </c>
-      <c r="AF6" t="n">
-        <v>13</v>
-      </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI6" t="n">
         <v>30</v>
@@ -1526,13 +1593,13 @@
         <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AW6" t="n">
         <v>20</v>
       </c>
       <c r="AX6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -1660,10 +1727,10 @@
         <v>20</v>
       </c>
       <c r="AF7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH7" t="n">
         <v>2</v>
@@ -1684,7 +1751,7 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
         <v>15</v>
@@ -1693,7 +1760,7 @@
         <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR7" t="n">
         <v>3</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1933,7 @@
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO8" t="n">
         <v>18</v>
@@ -1905,10 +1972,10 @@
         <v>11</v>
       </c>
       <c r="BA8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -1940,46 +2007,46 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" t="n">
         <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" t="n">
-        <v>0.424</v>
+        <v>0.431</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="J9" t="n">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L9" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="N9" t="n">
         <v>0.357</v>
       </c>
       <c r="O9" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P9" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.716</v>
+        <v>0.717</v>
       </c>
       <c r="R9" t="n">
         <v>12.5</v>
@@ -1988,7 +2055,7 @@
         <v>32.9</v>
       </c>
       <c r="T9" t="n">
-        <v>45.4</v>
+        <v>45.5</v>
       </c>
       <c r="U9" t="n">
         <v>21.6</v>
@@ -2003,22 +2070,22 @@
         <v>5.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="AA9" t="n">
         <v>21.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>102.6</v>
+        <v>102.2</v>
       </c>
       <c r="AC9" t="n">
         <v>-2.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2033,16 +2100,16 @@
         <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
@@ -2072,7 +2139,7 @@
         <v>14</v>
       </c>
       <c r="AV9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW9" t="n">
         <v>24</v>
@@ -2084,7 +2151,7 @@
         <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA9" t="n">
         <v>7</v>
@@ -2093,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="BC9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" t="n">
         <v>36</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2143,34 +2210,34 @@
         <v>86.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L10" t="n">
         <v>5.9</v>
       </c>
       <c r="M10" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N10" t="n">
         <v>0.312</v>
       </c>
       <c r="O10" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P10" t="n">
         <v>25.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.668</v>
+        <v>0.666</v>
       </c>
       <c r="R10" t="n">
         <v>14.5</v>
       </c>
       <c r="S10" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T10" t="n">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="U10" t="n">
         <v>20.9</v>
@@ -2179,7 +2246,7 @@
         <v>15</v>
       </c>
       <c r="W10" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X10" t="n">
         <v>5.2</v>
@@ -2188,34 +2255,34 @@
         <v>4.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.5</v>
+        <v>-2.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ10" t="n">
         <v>4</v>
@@ -2248,7 +2315,7 @@
         <v>24</v>
       </c>
       <c r="AT10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU10" t="n">
         <v>20</v>
@@ -2263,13 +2330,13 @@
         <v>10</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ10" t="n">
         <v>15</v>
       </c>
       <c r="BA10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB10" t="n">
         <v>15</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,13 +2461,13 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>7</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK11" t="n">
         <v>10</v>
@@ -2412,13 +2479,13 @@
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO11" t="n">
         <v>22</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
         <v>23</v>
@@ -2436,13 +2503,13 @@
         <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW11" t="n">
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -2564,19 +2631,19 @@
         <v>4.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
       </c>
       <c r="AF12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG12" t="n">
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2621,16 +2688,16 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX12" t="n">
         <v>5</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>7.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2767,7 +2834,7 @@
         <v>25</v>
       </c>
       <c r="AK13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL13" t="n">
         <v>21</v>
@@ -2776,7 +2843,7 @@
         <v>23</v>
       </c>
       <c r="AN13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -2952,7 +3019,7 @@
         <v>6</v>
       </c>
       <c r="AL14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -3032,25 +3099,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" t="n">
         <v>39</v>
       </c>
       <c r="G15" t="n">
-        <v>0.35</v>
+        <v>0.339</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J15" t="n">
-        <v>84</v>
+        <v>83.8</v>
       </c>
       <c r="K15" t="n">
         <v>0.448</v>
@@ -3059,19 +3126,19 @@
         <v>9.4</v>
       </c>
       <c r="M15" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.383</v>
+        <v>0.382</v>
       </c>
       <c r="O15" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P15" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R15" t="n">
         <v>9.199999999999999</v>
@@ -3080,16 +3147,16 @@
         <v>32.6</v>
       </c>
       <c r="T15" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U15" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V15" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W15" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X15" t="n">
         <v>5.8</v>
@@ -3101,25 +3168,25 @@
         <v>20.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.3</v>
+        <v>-5.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH15" t="n">
         <v>28</v>
@@ -3134,10 +3201,10 @@
         <v>17</v>
       </c>
       <c r="AL15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN15" t="n">
         <v>3</v>
@@ -3146,10 +3213,10 @@
         <v>21</v>
       </c>
       <c r="AP15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>25</v>
@@ -3167,13 +3234,13 @@
         <v>23</v>
       </c>
       <c r="AW15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AX15" t="n">
         <v>3</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
         <v>12</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" t="n">
         <v>25</v>
       </c>
       <c r="G16" t="n">
-        <v>0.576</v>
+        <v>0.569</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J16" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
@@ -3244,28 +3311,28 @@
         <v>14.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O16" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="P16" t="n">
         <v>20.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R16" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S16" t="n">
         <v>30.8</v>
       </c>
       <c r="T16" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U16" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V16" t="n">
         <v>13.5</v>
@@ -3286,13 +3353,13 @@
         <v>18.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.7</v>
+        <v>95.5</v>
       </c>
       <c r="AC16" t="n">
         <v>0.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3307,13 +3374,13 @@
         <v>13</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3340,7 +3407,7 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU16" t="n">
         <v>13</v>
@@ -3355,7 +3422,7 @@
         <v>17</v>
       </c>
       <c r="AY16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -3396,37 +3463,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.754</v>
+        <v>0.75</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="J17" t="n">
-        <v>76.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="K17" t="n">
         <v>0.511</v>
       </c>
       <c r="L17" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="M17" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.373</v>
+        <v>0.369</v>
       </c>
       <c r="O17" t="n">
         <v>17.9</v>
@@ -3447,37 +3514,37 @@
         <v>36.8</v>
       </c>
       <c r="U17" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V17" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W17" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X17" t="n">
         <v>4.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Z17" t="n">
         <v>20.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>104.7</v>
+        <v>104.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AD17" t="n">
         <v>30</v>
       </c>
       <c r="AE17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF17" t="n">
         <v>2</v>
@@ -3504,7 +3571,7 @@
         <v>15</v>
       </c>
       <c r="AN17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO17" t="n">
         <v>14</v>
@@ -3528,7 +3595,7 @@
         <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW17" t="n">
         <v>2</v>
@@ -3540,13 +3607,13 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -3578,58 +3645,58 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" t="n">
         <v>47</v>
       </c>
       <c r="G18" t="n">
-        <v>0.203</v>
+        <v>0.19</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
       </c>
       <c r="I18" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="J18" t="n">
-        <v>82.5</v>
+        <v>82.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.429</v>
+        <v>0.426</v>
       </c>
       <c r="L18" t="n">
         <v>7.4</v>
       </c>
       <c r="M18" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.361</v>
+        <v>0.358</v>
       </c>
       <c r="O18" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P18" t="n">
         <v>20.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.754</v>
+        <v>0.752</v>
       </c>
       <c r="R18" t="n">
         <v>11.7</v>
       </c>
       <c r="S18" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T18" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U18" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V18" t="n">
         <v>15.5</v>
@@ -3647,16 +3714,16 @@
         <v>20.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.7</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.1</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3671,10 +3738,10 @@
         <v>6</v>
       </c>
       <c r="AI18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
         <v>29</v>
@@ -3683,10 +3750,10 @@
         <v>18</v>
       </c>
       <c r="AM18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO18" t="n">
         <v>28</v>
@@ -3695,7 +3762,7 @@
         <v>27</v>
       </c>
       <c r="AQ18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR18" t="n">
         <v>12</v>
@@ -3707,13 +3774,13 @@
         <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV18" t="n">
         <v>24</v>
       </c>
       <c r="AW18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX18" t="n">
         <v>7</v>
@@ -3722,7 +3789,7 @@
         <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" t="n">
         <v>29</v>
       </c>
       <c r="G19" t="n">
-        <v>0.508</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,7 +3845,7 @@
         <v>38.5</v>
       </c>
       <c r="J19" t="n">
-        <v>87.59999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="K19" t="n">
         <v>0.439</v>
@@ -3787,19 +3854,19 @@
         <v>7.5</v>
       </c>
       <c r="M19" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="N19" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O19" t="n">
-        <v>21.7</v>
+        <v>21.2</v>
       </c>
       <c r="P19" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R19" t="n">
         <v>12.8</v>
@@ -3814,13 +3881,13 @@
         <v>23.3</v>
       </c>
       <c r="V19" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W19" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X19" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y19" t="n">
         <v>5.8</v>
@@ -3829,22 +3896,22 @@
         <v>18.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.2</v>
+        <v>105.7</v>
       </c>
       <c r="AC19" t="n">
         <v>4.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
         <v>15</v>
@@ -3856,16 +3923,16 @@
         <v>11</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
       </c>
       <c r="AL19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN19" t="n">
         <v>27</v>
@@ -3877,19 +3944,19 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR19" t="n">
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT19" t="n">
         <v>3</v>
       </c>
       <c r="AU19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
         <v>6</v>
@@ -3904,7 +3971,7 @@
         <v>26</v>
       </c>
       <c r="AZ19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -3942,58 +4009,58 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" t="n">
         <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" t="n">
-        <v>0.383</v>
+        <v>0.39</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>83</v>
+        <v>83.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
         <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="N20" t="n">
-        <v>0.378</v>
+        <v>0.38</v>
       </c>
       <c r="O20" t="n">
         <v>17.2</v>
       </c>
       <c r="P20" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R20" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S20" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T20" t="n">
-        <v>42.1</v>
+        <v>42.3</v>
       </c>
       <c r="U20" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V20" t="n">
         <v>13.9</v>
@@ -4005,46 +4072,46 @@
         <v>6.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="AC20" t="n">
         <v>-2.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG20" t="n">
         <v>21</v>
       </c>
-      <c r="AG20" t="n">
-        <v>22</v>
-      </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI20" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ20" t="n">
         <v>14</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM20" t="n">
         <v>29</v>
@@ -4062,16 +4129,16 @@
         <v>13</v>
       </c>
       <c r="AR20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
         <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AV20" t="n">
         <v>8</v>
@@ -4086,7 +4153,7 @@
         <v>28</v>
       </c>
       <c r="AZ20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA20" t="n">
         <v>22</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -4124,34 +4191,34 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" t="n">
         <v>21</v>
       </c>
       <c r="F21" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" t="n">
-        <v>0.344</v>
+        <v>0.35</v>
       </c>
       <c r="H21" t="n">
         <v>48.6</v>
       </c>
       <c r="I21" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J21" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L21" t="n">
         <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="N21" t="n">
         <v>0.365</v>
@@ -4160,22 +4227,22 @@
         <v>14.8</v>
       </c>
       <c r="P21" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R21" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T21" t="n">
         <v>40.9</v>
       </c>
       <c r="U21" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V21" t="n">
         <v>13.2</v>
@@ -4193,28 +4260,28 @@
         <v>22.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.3</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.1</v>
+        <v>-3</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4223,13 +4290,13 @@
         <v>13</v>
       </c>
       <c r="AK21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
         <v>7</v>
       </c>
       <c r="AM21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN21" t="n">
         <v>11</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS21" t="n">
         <v>27</v>
@@ -4262,7 +4329,7 @@
         <v>16</v>
       </c>
       <c r="AX21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY21" t="n">
         <v>6</v>
@@ -4271,10 +4338,10 @@
         <v>26</v>
       </c>
       <c r="BA21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC21" t="n">
         <v>23</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4393,13 +4460,13 @@
         <v>3</v>
       </c>
       <c r="AG22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ22" t="n">
         <v>20</v>
@@ -4408,13 +4475,13 @@
         <v>4</v>
       </c>
       <c r="AL22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM22" t="n">
         <v>16</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4432,7 +4499,7 @@
         <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU22" t="n">
         <v>15</v>
@@ -4441,7 +4508,7 @@
         <v>28</v>
       </c>
       <c r="AW22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4450,7 +4517,7 @@
         <v>4</v>
       </c>
       <c r="AZ22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA22" t="n">
         <v>18</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4651,7 @@
         <v>22</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
@@ -4611,7 +4678,7 @@
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT23" t="n">
         <v>19</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-10.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4760,7 +4827,7 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI24" t="n">
         <v>12</v>
@@ -4775,7 +4842,7 @@
         <v>23</v>
       </c>
       <c r="AM24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN24" t="n">
         <v>30</v>
@@ -4814,10 +4881,10 @@
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB24" t="n">
         <v>18</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>3</v>
       </c>
       <c r="AD25" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4951,7 +5018,7 @@
         <v>9</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="n">
         <v>4</v>
@@ -4960,7 +5027,7 @@
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5101,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" t="n">
         <v>41</v>
       </c>
       <c r="F26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.695</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="J26" t="n">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="K26" t="n">
         <v>0.452</v>
@@ -5064,31 +5131,31 @@
         <v>24.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.377</v>
+        <v>0.378</v>
       </c>
       <c r="O26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P26" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.823</v>
+        <v>0.826</v>
       </c>
       <c r="R26" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S26" t="n">
         <v>33.7</v>
       </c>
       <c r="T26" t="n">
-        <v>46.4</v>
+        <v>46.2</v>
       </c>
       <c r="U26" t="n">
         <v>23.5</v>
       </c>
       <c r="V26" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W26" t="n">
         <v>5.6</v>
@@ -5100,7 +5167,7 @@
         <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA26" t="n">
         <v>20.6</v>
@@ -5112,7 +5179,7 @@
         <v>4.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>5</v>
@@ -5124,13 +5191,13 @@
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
       </c>
       <c r="AJ26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK26" t="n">
         <v>14</v>
@@ -5142,10 +5209,10 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP26" t="n">
         <v>16</v>
@@ -5181,7 +5248,7 @@
         <v>6</v>
       </c>
       <c r="BA26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB26" t="n">
         <v>1</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -5216,49 +5283,49 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F27" t="n">
         <v>39</v>
       </c>
       <c r="G27" t="n">
-        <v>0.35</v>
+        <v>0.339</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J27" t="n">
-        <v>82.90000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K27" t="n">
         <v>0.448</v>
       </c>
       <c r="L27" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M27" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O27" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="P27" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="Q27" t="n">
         <v>0.777</v>
       </c>
       <c r="R27" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S27" t="n">
         <v>31.7</v>
@@ -5267,10 +5334,10 @@
         <v>43.7</v>
       </c>
       <c r="U27" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="V27" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W27" t="n">
         <v>7.4</v>
@@ -5282,28 +5349,28 @@
         <v>5.7</v>
       </c>
       <c r="Z27" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.4</v>
+        <v>-2.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH27" t="n">
         <v>12</v>
@@ -5312,7 +5379,7 @@
         <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK27" t="n">
         <v>18</v>
@@ -5321,7 +5388,7 @@
         <v>24</v>
       </c>
       <c r="AM27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN27" t="n">
         <v>26</v>
@@ -5333,10 +5400,10 @@
         <v>4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS27" t="n">
         <v>16</v>
@@ -5351,7 +5418,7 @@
         <v>18</v>
       </c>
       <c r="AW27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX27" t="n">
         <v>28</v>
@@ -5360,7 +5427,7 @@
         <v>24</v>
       </c>
       <c r="AZ27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA27" t="n">
         <v>4</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>6</v>
       </c>
       <c r="AD28" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5503,7 +5570,7 @@
         <v>13</v>
       </c>
       <c r="AM28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
@@ -5518,7 +5585,7 @@
         <v>4</v>
       </c>
       <c r="AR28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS28" t="n">
         <v>6</v>
@@ -5530,16 +5597,16 @@
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
         <v>19</v>
       </c>
       <c r="AX28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF29" t="n">
         <v>12</v>
@@ -5676,7 +5743,7 @@
         <v>24</v>
       </c>
       <c r="AJ29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK29" t="n">
         <v>23</v>
@@ -5691,13 +5758,13 @@
         <v>12</v>
       </c>
       <c r="AO29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP29" t="n">
         <v>9</v>
       </c>
       <c r="AQ29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR29" t="n">
         <v>10</v>
@@ -5724,7 +5791,7 @@
         <v>12</v>
       </c>
       <c r="AZ29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA29" t="n">
         <v>6</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -5762,25 +5829,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30" t="n">
         <v>21</v>
       </c>
       <c r="F30" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" t="n">
-        <v>0.35</v>
+        <v>0.356</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
       </c>
       <c r="I30" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J30" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K30" t="n">
         <v>0.442</v>
@@ -5789,31 +5856,31 @@
         <v>6.8</v>
       </c>
       <c r="M30" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N30" t="n">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="O30" t="n">
         <v>16.3</v>
       </c>
       <c r="P30" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R30" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S30" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="T30" t="n">
         <v>41.5</v>
       </c>
       <c r="U30" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V30" t="n">
         <v>14.6</v>
@@ -5834,13 +5901,13 @@
         <v>20.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>-5.9</v>
+        <v>-5.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
         <v>23</v>
@@ -5861,13 +5928,13 @@
         <v>26</v>
       </c>
       <c r="AK30" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL30" t="n">
         <v>22</v>
       </c>
       <c r="AM30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN30" t="n">
         <v>17</v>
@@ -5879,7 +5946,7 @@
         <v>21</v>
       </c>
       <c r="AQ30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR30" t="n">
         <v>20</v>
@@ -5897,7 +5964,7 @@
         <v>13</v>
       </c>
       <c r="AW30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX30" t="n">
         <v>16</v>
@@ -5906,7 +5973,7 @@
         <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA30" t="n">
         <v>16</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
@@ -5944,22 +6011,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" t="n">
         <v>31</v>
       </c>
       <c r="F31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>0.517</v>
+        <v>0.525</v>
       </c>
       <c r="H31" t="n">
         <v>49</v>
       </c>
       <c r="I31" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J31" t="n">
         <v>84.90000000000001</v>
@@ -5968,40 +6035,40 @@
         <v>0.454</v>
       </c>
       <c r="L31" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M31" t="n">
         <v>20.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.383</v>
+        <v>0.382</v>
       </c>
       <c r="O31" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="P31" t="n">
         <v>21.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.729</v>
+        <v>0.728</v>
       </c>
       <c r="R31" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S31" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T31" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U31" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="V31" t="n">
         <v>14.7</v>
       </c>
       <c r="W31" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X31" t="n">
         <v>4.8</v>
@@ -6013,16 +6080,16 @@
         <v>20.7</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB31" t="n">
         <v>100.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6043,13 +6110,13 @@
         <v>8</v>
       </c>
       <c r="AK31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL31" t="n">
         <v>15</v>
       </c>
       <c r="AM31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN31" t="n">
         <v>2</v>
@@ -6061,10 +6128,10 @@
         <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AR31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS31" t="n">
         <v>18</v>
@@ -6073,13 +6140,13 @@
         <v>17</v>
       </c>
       <c r="AU31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV31" t="n">
         <v>14</v>
       </c>
       <c r="AW31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-3-2013-14</t>
+          <t>2014-03-03</t>
         </is>
       </c>
     </row>
